--- a/VRPresentation/Book1.xlsx
+++ b/VRPresentation/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CalPoly\EC4990AINew\AIBookSlides\VRPresentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03AC544-3337-40CC-8AA7-67A5547B89DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE84AC3-B03E-4E7C-B7F7-282973CCBD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DCD20914-9014-4232-ACFA-3D41AB218E55}"/>
   </bookViews>
@@ -36,59 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>In-Classroom</t>
   </si>
   <si>
-    <t>Online</t>
-  </si>
-  <si>
     <t>LEARNING  MODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> • low WiFi bandwidth requirement
- • students loan headsets and use them at home
- • communication: live through the headsets</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> • communication: with physical 
-   voice via Zoom</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Standalone App</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- • runs inside each VR headset
- • app loading  required (Meta Store 
-    or SideQuest platform)
- • low or no WiFi bandwidth required
- • no multi-player support out -of -the-box
- • instructor/student interaction possible
- • accessibility: instructor shares their screen</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> • communication: with physical 
-   voice in the classroom</t>
   </si>
   <si>
     <t xml:space="preserve"> • high WiFi bandwidth requirement
@@ -125,6 +78,72 @@
  • accessibility: 
     students can play in browser</t>
     </r>
+  </si>
+  <si>
+    <t>Online: Student/Instructor</t>
+  </si>
+  <si>
+    <t>Online: Self-Learner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • low WiFi bandwidth requirement
+ • students loan headsets and use
+     them at home
+ • communication: live through the headsets</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Standalone App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ • app runs inside each VR headset
+ • app loading  required (Meta Store 
+     or SideQuest platform)
+ • low or no WiFi bandwidth required
+ • no out -of -the-box support for
+     multi-player mode  
+ • instructor/student interaction is
+     possible
+ • accessibility: 
+    instructor shares VR headset view</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> • low WiFi bandwidth requirement
+ • students loan headsets and use 
+    them at home</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ • communication: 
+    build in avatars talk to self-learners
+    when approached</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • communication: 
+     with physical  voice in the 
+     classroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • communication: 
+      with physical  voice via Zoom</t>
   </si>
 </sst>
 </file>
@@ -180,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -247,38 +266,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,57 +667,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D71E59-E5C1-460A-B73F-A7D234CADCC0}">
-  <dimension ref="D3:F7"/>
+  <dimension ref="D3:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="6" width="30.77734375" customWidth="1"/>
+    <col min="4" max="7" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E4" s="1" t="s">
+    <row r="3" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" ht="95.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6" ht="95.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8" t="s">
+    <row r="7" spans="4:7" ht="186" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6" ht="186" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>4</v>
+      <c r="E7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
